--- a/biology/Zoologie/Antillena_rickwesti/Antillena_rickwesti.xlsx
+++ b/biology/Zoologie/Antillena_rickwesti/Antillena_rickwesti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antillena rickwesti, unique représentant du genre Antillena, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antillena rickwesti, unique représentant du genre Antillena, est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de République dominicaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de République dominicaine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 14,8 mm de long sur 11,9 mm et l'abdomen 14,3 mm de long sur 11,3 mm[2]. La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 10,4 mm de long sur 9,9 mm et l'abdomen 14,9 mm de long sur 10,7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 14,8 mm de long sur 11,9 mm et l'abdomen 14,3 mm de long sur 11,3 mm. La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 10,4 mm de long sur 9,9 mm et l'abdomen 14,9 mm de long sur 10,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rick C. West[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rick C. West.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bertani &amp; Huff, 2013 : Avicularia rickwesti sp. nov., a remarkable new species of Avicularia (Theraphosidae: Aviculariinae) from Dominican Republic. Zoologia (Curitiba), vol. 30, p. 333-337 (texte intégral).
 Fukushima &amp; Bertani, 2017 : Taxonomic revision and cladistic analysis of Avicularia Lamarck, 1818 (Araneae, Theraphosidae, Aviculariinae) with description of three new aviculariine genera. ZooKeys, no 659, p. 1-185 (texte intégral).</t>
